--- a/hardware/BreakoutBoard_RevB/BreakoutBoard_RevB_BOM.xlsx
+++ b/hardware/BreakoutBoard_RevB/BreakoutBoard_RevB_BOM.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="23955" windowHeight="14310" tabRatio="491"/>
   </bookViews>
   <sheets>
-    <sheet name="Power Supply Board - Rev A" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Breakout Board - Rev B" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -127,9 +125,6 @@
   </si>
   <si>
     <t>TEST POINT PC COMPACT T/H BLUE</t>
-  </si>
-  <si>
-    <t>Bill of Materials for 'Marmote - Breakout Board (Rev B)'</t>
   </si>
   <si>
     <t>J3, J4, J5, J6, J7, J8, J9, J10, J11, J12, J13*</t>
@@ -211,6 +206,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Bill of Materials for 'Marmote - Breakout Board Rev B (Smoky)'</t>
   </si>
 </sst>
 </file>
@@ -491,13 +489,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -508,6 +499,13 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -815,7 +813,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,20 +834,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="3" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -880,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>8</v>
@@ -897,35 +895,35 @@
         <v>23</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
       <c r="K4" s="22">
-        <v>5.81</v>
+        <v>6.24</v>
       </c>
       <c r="L4" s="29">
-        <f>J4*K4</f>
-        <v>5.81</v>
+        <f t="shared" ref="L4" si="0">J4*K4</f>
+        <v>6.24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -936,35 +934,35 @@
         <v>24</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
       </c>
       <c r="K5" s="22">
-        <v>6.24</v>
+        <v>5.81</v>
       </c>
       <c r="L5" s="29">
-        <f t="shared" ref="L5:L11" si="0">J5*K5</f>
-        <v>6.24</v>
+        <f>J5*K5</f>
+        <v>5.81</v>
       </c>
       <c r="M5" s="22"/>
     </row>
@@ -973,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>22</v>
@@ -1003,7 +1001,7 @@
         <v>4.62</v>
       </c>
       <c r="L6" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L6:L11" si="1">J6*K6</f>
         <v>4.62</v>
       </c>
       <c r="M6" s="22"/>
@@ -1013,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -1043,7 +1041,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="L7" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16400000000000001</v>
       </c>
       <c r="M7" s="22"/>
@@ -1053,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>13</v>
@@ -1083,7 +1081,7 @@
         <v>0.38</v>
       </c>
       <c r="L8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
       <c r="M8" s="22"/>
@@ -1093,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
@@ -1123,7 +1121,7 @@
         <v>0.38</v>
       </c>
       <c r="L9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
       <c r="M9" s="22"/>
@@ -1163,7 +1161,7 @@
         <v>0.36</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
       <c r="M10" s="22"/>
@@ -1172,38 +1170,38 @@
       <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="34">
+        <v>7200</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="37">
-        <v>7200</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="37" t="s">
+      <c r="I11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="37">
+      <c r="J11" s="34">
         <v>4</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="32">
         <v>0.68</v>
       </c>
       <c r="L11" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.72</v>
       </c>
     </row>
@@ -1215,7 +1213,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="I12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="23">
         <f>SUM(J4:J11)</f>
@@ -1229,21 +1227,21 @@
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="A13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
@@ -1667,28 +1665,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>